--- a/FERRARAGENEROSOesercizio_1.xlsx
+++ b/FERRARAGENEROSOesercizio_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D8C81E-3134-47B0-8A60-C5BA2F8F2EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9304C4-838A-4855-BB26-DDB3DA2BD795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,8 +1020,14 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="9">
+        <f>SUM(C8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="e">
+        <f>AVERAGE(C8:E8)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
@@ -1030,8 +1036,14 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="9">
+        <f>SUM(C9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="e">
+        <f>AVERAGE(C9:E9)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
@@ -1040,8 +1052,14 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="9">
+        <f>SUM(C10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="e">
+        <f>AVERAGE(C10:E10)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
@@ -1050,8 +1068,14 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="9">
+        <f>SUM(C11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="e">
+        <f>AVERAGE(C11:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
@@ -1060,8 +1084,14 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="9">
+        <f>SUM(C12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="e">
+        <f>AVERAGE(C12:E12)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
@@ -1070,8 +1100,14 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="9">
+        <f>SUM(C13:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="e">
+        <f>AVERAGE(C13:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
@@ -1080,8 +1116,14 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="9">
+        <f>SUM(C14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="e">
+        <f>AVERAGE(C14:E14)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
